--- a/Plot_Edit_for_v_0.2.xlsx
+++ b/Plot_Edit_for_v_0.2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Google Диск\Repair\Schematics\ПАЯЛКА\Редактирование Графиков\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Desktop\SolderingStation\Sketch_3thermo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C229733-6684-48EF-829E-1684B6CC4313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Значения ПИД и Настройки" sheetId="7" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Калибровка ПИД" sheetId="5" r:id="rId5"/>
     <sheet name="Калибровка ПИД Шаги" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="77">
   <si>
     <t>ВИ</t>
   </si>
@@ -213,11 +214,59 @@
   <si>
     <t>profile_steps</t>
   </si>
+  <si>
+    <t>table_size</t>
+  </si>
+  <si>
+    <t>max_correction_top</t>
+  </si>
+  <si>
+    <t>max_correction_bottom</t>
+  </si>
+  <si>
+    <t>max_pcb_delta</t>
+  </si>
+  <si>
+    <t>hold_lenght</t>
+  </si>
+  <si>
+    <t>participation_rate_top</t>
+  </si>
+  <si>
+    <t>kp1</t>
+  </si>
+  <si>
+    <t>ki1</t>
+  </si>
+  <si>
+    <t>kd1</t>
+  </si>
+  <si>
+    <t>kp2</t>
+  </si>
+  <si>
+    <t>ki2</t>
+  </si>
+  <si>
+    <t>kd2</t>
+  </si>
+  <si>
+    <t>kp3</t>
+  </si>
+  <si>
+    <t>ki3</t>
+  </si>
+  <si>
+    <t>kd3</t>
+  </si>
+  <si>
+    <t>Не менять, не удалять</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +325,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,6 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,7 +580,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -821,6 +877,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F87A-462E-ACBD-3BA3209D62D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1022,6 +1083,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F87A-462E-ACBD-3BA3209D62D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1133,6 +1199,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F87A-462E-ACBD-3BA3209D62D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1383,7 +1454,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1617,93 +1688,98 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>256</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>306</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>316</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>326</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>321</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>311</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>306</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>301</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>291</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>281</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>270</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>302</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>309</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>310</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>311</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>310</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>309</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>307</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>305</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>303</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>295</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>255</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>202</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>103</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>103</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D7B-42B8-B944-3C676BEDBBE5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1917,6 +1993,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D7B-42B8-B944-3C676BEDBBE5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2028,6 +2109,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D7B-42B8-B944-3C676BEDBBE5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2278,7 +2364,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2599,6 +2685,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E77C-4F02-B215-F864D22B7F57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2812,6 +2903,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E77C-4F02-B215-F864D22B7F57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2923,6 +3019,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E77C-4F02-B215-F864D22B7F57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3173,7 +3274,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3494,6 +3595,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC13-4862-9344-ED3B1410CFDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3707,6 +3813,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC13-4862-9344-ED3B1410CFDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3818,6 +3929,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AC13-4862-9344-ED3B1410CFDA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4068,7 +4184,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4389,6 +4505,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2684-4426-997C-54DF21278FAE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -4602,6 +4723,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2684-4426-997C-54DF21278FAE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4713,6 +4839,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2684-4426-997C-54DF21278FAE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7779,7 +7910,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7814,7 +7951,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7851,7 +7994,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7888,7 +8037,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7925,7 +8080,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8207,16 +8368,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>24</v>
       </c>
@@ -8226,7 +8387,7 @@
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -8237,7 +8398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8251,7 +8412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8265,7 +8426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -8279,7 +8440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>31</v>
       </c>
@@ -8289,7 +8450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>32</v>
       </c>
@@ -8305,7 +8466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>33</v>
       </c>
@@ -8321,7 +8482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>34</v>
       </c>
@@ -8337,7 +8498,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>35</v>
       </c>
@@ -8353,7 +8514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>36</v>
       </c>
@@ -8369,7 +8530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>37</v>
       </c>
@@ -8386,10 +8547,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F19" s="30"/>
     </row>
-    <row r="22" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>28</v>
       </c>
@@ -8401,114 +8562,258 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H23" s="16"/>
-      <c r="N23" t="s">
+      <c r="M23" s="43"/>
+      <c r="N23" s="43" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="str">
-        <f>N25&amp;" "&amp;Свинец!A81&amp;"; "&amp;N26&amp;" "&amp;Свинец!A83&amp;"; "&amp;N27&amp;" "&amp;Свинец!A85&amp;"; "&amp;N28&amp;" "&amp;Свинец!A87&amp;"; "&amp;N29&amp;" "&amp;Свинец!A89&amp;"; "&amp;N30&amp;" "&amp;Свинец!A91&amp;"; "&amp;N31&amp;" "&amp;Свинец!W1&amp;"; "&amp;D10&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;";"</f>
-        <v>time_step_top 0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,413,481,524,0,0,0,0,0,0,; temperature_step_top 84,84,102,112,122,132,157,192,211,205,195,180,180,197,232,262,289,313,335,350,344,333,161,50,0,0,0,0,0,0,; time_step_bottom 0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,524,0,0,0,0,0,0,; temperature_step_bottom 256,256,306,312,318,320,325,324,319,304,288,275,275,279,294,308,309,310,311,309,302,269,194,104,0,0,0,0,0,0,; time_step_pcb 0,4,89,153,185,262,378,398,413,524,; temperature_step_pcb 79,79,122,152,162,170,206,210,210,99; profile_steps 23; 3,31,23,37,6,23,8,5,15,12,30,70,10,5,30,1;</v>
+        <f>N25&amp;" "&amp;Свинец!A81&amp;"; "&amp;N26&amp;" "&amp;Свинец!A83&amp;"; "&amp;N27&amp;" "&amp;Свинец!A85&amp;"; "&amp;N28&amp;" "&amp;Свинец!A87&amp;"; "&amp;N29&amp;" "&amp;Свинец!A89&amp;"; "&amp;N30&amp;" "&amp;Свинец!A91&amp;"; "&amp;N31&amp;" "&amp;Свинец!W1&amp;"; "&amp;S25&amp;" "&amp;D10&amp;"; "&amp;V25&amp;" "&amp;B4&amp;"; "&amp;V26&amp;" "&amp;B5&amp;"; "&amp;V27&amp;" "&amp;B6&amp;"; "&amp;W25&amp;" "&amp;D4&amp;"; "&amp;W26&amp;" "&amp;D5&amp;"; "&amp;W27&amp;" "&amp;D6&amp;"; "&amp;X25&amp;" "&amp;F4&amp;"; "&amp;X26&amp;" "&amp;F5&amp;"; "&amp;X27&amp;" "&amp;F6&amp;"; "&amp;S26&amp;" "&amp;D11&amp;"; "&amp;S27&amp;" "&amp;D12&amp;"; "&amp;S28&amp;" "&amp;D13&amp;"; "&amp;S29&amp;" "&amp;D14&amp;"; "&amp;S30&amp;" "&amp;D15&amp;";"</f>
+        <v>time_step_top 0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,413,481,524,0,0,0,0,0,0,; temperature_step_top 84,84,102,112,122,132,157,192,211,205,195,180,180,197,232,262,289,313,335,350,344,333,161,50,0,0,0,0,0,0,; time_step_bottom 0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,524,0,0,0,0,0,0,; temperature_step_bottom 256,256,306,312,318,320,325,324,319,304,288,275,275,279,294,308,309,310,311,309,302,269,194,104,0,0,0,0,0,0,; time_step_pcb 0,4,89,153,185,262,378,398,413,524,; temperature_step_pcb 79,79,122,152,162,170,206,210,210,99; profile_steps 23; table_size 3; kp1 31; ki1 23; kd1 37; kp2 6; ki2 23; kd2 8; kp3 5; ki3 15; kd3 12; max_correction_top 30; max_correction_bottom 70; max_pcb_delta 10; hold_lenght 5; participation_rate_top 30;</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
       </c>
       <c r="H25" s="16"/>
-      <c r="N25" t="s">
+      <c r="M25" s="43"/>
+      <c r="N25" s="43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="W25" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="X25" s="43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H26" s="16"/>
-      <c r="N26" t="s">
+      <c r="M26" s="43"/>
+      <c r="N26" s="43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="W26" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="X26" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="16"/>
-      <c r="N27" t="s">
+      <c r="M27" s="43"/>
+      <c r="N27" s="43" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="W27" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="X27" s="43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="str">
-        <f>N25&amp;" "&amp;Бессвинец!A81&amp;"; "&amp;N26&amp;" "&amp;Бессвинец!A83&amp;"; "&amp;N27&amp;" "&amp;Бессвинец!A85&amp;"; "&amp;N28&amp;" "&amp;Бессвинец!A87&amp;"; "&amp;N29&amp;" "&amp;Бессвинец!A89&amp;"; "&amp;N30&amp;" "&amp;Бессвинец!A91&amp;"; "&amp;N31&amp;" "&amp;Бессвинец!W1&amp;"; "&amp;D10&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;";"</f>
-        <v>time_step_top 0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,420,440,457,593,593,0,0,0,0,; temperature_step_top 84,84,102,112,122,131,139,146,161,166,172,170,169,194,235,262,290,313,335,356,373,386,391,383,12,12,0,0,0,0,; time_step_bottom 0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,454,474,494,593,593,0,0,; temperature_step_bottom 256,256,306,316,326,321,316,311,306,301,291,281,270,282,302,309,310,311,310,309,307,305,303,295,255,202,103,103,0,0,; time_step_pcb 0,4,89,159,212,252,420,442,457,593,; temperature_step_pcb 79,79,122,148,161,165,219,227,227,91; profile_steps 27; 3,31,23,37,6,23,8,5,15,12,30,70,10,5,30,1;</v>
+        <f>N25&amp;" "&amp;Бессвинец!A81&amp;"; "&amp;N26&amp;" "&amp;Бессвинец!A83&amp;"; "&amp;N27&amp;" "&amp;Бессвинец!A85&amp;"; "&amp;N28&amp;" "&amp;Бессвинец!A87&amp;"; "&amp;N29&amp;" "&amp;Бессвинец!A89&amp;"; "&amp;N30&amp;" "&amp;Бессвинец!A91&amp;"; "&amp;N31&amp;" "&amp;Бессвинец!W1&amp;"; "&amp;S25&amp;" "&amp;D10&amp;"; "&amp;V25&amp;" "&amp;B4&amp;"; "&amp;V26&amp;" "&amp;B5&amp;"; "&amp;V27&amp;" "&amp;B6&amp;"; "&amp;W25&amp;" "&amp;D4&amp;"; "&amp;W26&amp;" "&amp;D5&amp;"; "&amp;W27&amp;" "&amp;D6&amp;"; "&amp;X25&amp;" "&amp;F4&amp;"; "&amp;X26&amp;" "&amp;F5&amp;"; "&amp;X27&amp;" "&amp;F6&amp;"; "&amp;S26&amp;" "&amp;D11&amp;"; "&amp;S27&amp;" "&amp;D12&amp;"; "&amp;S28&amp;" "&amp;D13&amp;"; "&amp;S29&amp;" "&amp;D14&amp;"; "&amp;S30&amp;" "&amp;D15&amp;";"</f>
+        <v>time_step_top 0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,420,440,457,593,593,0,0,0,0,; temperature_step_top 84,84,102,112,122,131,139,146,161,166,172,170,169,194,235,262,290,313,335,356,373,386,391,383,12,12,0,0,0,0,; time_step_bottom 0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,454,474,494,593,593,0,0,; temperature_step_bottom 170,170,220,230,240,235,230,225,220,215,205,195,184,196,216,223,224,225,224,223,221,219,217,209,169,116,17,17,0,0,; time_step_pcb 0,4,89,159,212,252,420,442,457,593,; temperature_step_pcb 79,79,122,148,161,165,219,227,227,91; profile_steps 27; table_size 3; kp1 31; ki1 23; kd1 37; kp2 6; ki2 23; kd2 8; kp3 5; ki3 15; kd3 12; max_correction_top 30; max_correction_bottom 70; max_pcb_delta 10; hold_lenght 5; participation_rate_top 30;</v>
       </c>
       <c r="E28" t="s">
         <v>49</v>
       </c>
       <c r="H28" s="16"/>
-      <c r="N28" t="s">
+      <c r="M28" s="43"/>
+      <c r="N28" s="43" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H29" s="16"/>
-      <c r="N29" t="s">
+      <c r="M29" s="43"/>
+      <c r="N29" s="43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H30" s="16"/>
-      <c r="N30" t="s">
+      <c r="M30" s="43"/>
+      <c r="N30" s="43" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="H31" s="16"/>
-      <c r="N31" t="s">
+      <c r="M31" s="43"/>
+      <c r="N31" s="43" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="str">
-        <f>"N"&amp;'Калибровка ПИД'!A81&amp;'Калибровка ПИД'!A83&amp;'Калибровка ПИД'!A85&amp;'Калибровка ПИД'!A87&amp;'Калибровка ПИД'!A89&amp;'Калибровка ПИД'!A91&amp;","&amp;'Калибровка ПИД'!W1&amp;","&amp;D10&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;";"</f>
-        <v>N0,60,90,91,120,121,122,123,124,125,185,215,216,276,306,307,367,397,398,428,429,459,460,490,491,521,522,622,0,0,100,100,100,450,450,450,450,450,450,100,100,100,100,100,100,150,150,150,150,150,150,150,150,150,150,150,150,150,0,0,0,60,90,91,120,121,122,123,124,125,185,215,216,276,306,307,367,397,398,428,429,459,460,490,491,521,522,622,0,0,100,100,100,450,450,450,450,450,450,100,100,100,100,100,100,150,150,150,150,150,150,150,150,150,150,150,150,150,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,27,3,31,23,37,6,23,8,5,15,12,30,70,10,5,30,1;</v>
+        <f>"N"&amp;'Калибровка ПИД'!A81&amp;'Калибровка ПИД'!A83&amp;'Калибровка ПИД'!A85&amp;'Калибровка ПИД'!A87&amp;'Калибровка ПИД'!A89&amp;'Калибровка ПИД'!A91&amp;","&amp;'Калибровка ПИД'!W1&amp;","&amp;S25&amp;" "&amp;D10&amp;"; "&amp;V25&amp;" "&amp;B4&amp;"; "&amp;V26&amp;" "&amp;B5&amp;"; "&amp;V27&amp;" "&amp;B6&amp;"; "&amp;W25&amp;" "&amp;D4&amp;"; "&amp;W26&amp;" "&amp;D5&amp;"; "&amp;W27&amp;" "&amp;D6&amp;"; "&amp;X25&amp;" "&amp;F4&amp;"; "&amp;X26&amp;" "&amp;F5&amp;"; "&amp;X27&amp;" "&amp;F6&amp;"; "&amp;S26&amp;" "&amp;D11&amp;"; "&amp;S27&amp;" "&amp;D12&amp;"; "&amp;S28&amp;" "&amp;D13&amp;"; "&amp;S29&amp;" "&amp;D14&amp;"; "&amp;S30&amp;" "&amp;D15&amp;";"</f>
+        <v>N0,60,90,91,120,121,122,123,124,125,185,215,216,276,306,307,367,397,398,428,429,459,460,490,491,521,522,622,0,0,100,100,100,450,450,450,450,450,450,100,100,100,100,100,100,150,150,150,150,150,150,150,150,150,150,150,150,150,0,0,0,60,90,91,120,121,122,123,124,125,185,215,216,276,306,307,367,397,398,428,429,459,460,490,491,521,522,622,0,0,100,100,100,450,450,450,450,450,450,100,100,100,100,100,100,150,150,150,150,150,150,150,150,150,150,150,150,150,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,27,table_size 3; kp1 31; ki1 23; kd1 37; kp2 6; ki2 23; kd2 8; kp3 5; ki3 15; kd3 12; max_correction_top 30; max_correction_bottom 70; max_pcb_delta 10; hold_lenght 5; participation_rate_top 30;</v>
       </c>
       <c r="E32" t="s">
         <v>49</v>
       </c>
       <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="str">
-        <f>"N"&amp;'Калибровка ПИД Шаги'!A81&amp;'Калибровка ПИД Шаги'!A83&amp;'Калибровка ПИД Шаги'!A85&amp;'Калибровка ПИД Шаги'!A87&amp;'Калибровка ПИД Шаги'!A89&amp;'Калибровка ПИД Шаги'!A91&amp;","&amp;'Калибровка ПИД Шаги'!W1&amp;","&amp;D10&amp;","&amp;B4&amp;","&amp;B5&amp;","&amp;B6&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15&amp;","&amp;D16&amp;";"</f>
-        <v>N0,60,90,91,151,181,182,242,272,273,333,363,364,424,454,455,515,545,546,576,577,607,608,638,639,669,670,770,0,0,100,100,100,150,150,150,150,150,150,200,200,200,200,200,200,250,250,250,250,250,200,200,150,150,0,0,-50,-150,0,0,0,60,90,91,151,181,182,242,272,273,333,363,364,424,454,455,515,545,546,576,577,607,608,638,639,669,670,770,0,0,100,100,100,150,150,150,150,150,150,200,200,200,200,200,200,250,250,250,250,250,200,200,150,150,100,100,50,-50,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,27,3,31,23,37,6,23,8,5,15,12,30,70,10,5,30,1;</v>
+        <f>"N"&amp;'Калибровка ПИД Шаги'!A81&amp;'Калибровка ПИД Шаги'!A83&amp;'Калибровка ПИД Шаги'!A85&amp;'Калибровка ПИД Шаги'!A87&amp;'Калибровка ПИД Шаги'!A89&amp;'Калибровка ПИД Шаги'!A91&amp;","&amp;'Калибровка ПИД Шаги'!W1&amp;","&amp;S25&amp;" "&amp;D10&amp;"; "&amp;V25&amp;" "&amp;B4&amp;"; "&amp;V26&amp;" "&amp;B5&amp;"; "&amp;V27&amp;" "&amp;B6&amp;"; "&amp;W25&amp;" "&amp;D4&amp;"; "&amp;W26&amp;" "&amp;D5&amp;"; "&amp;W27&amp;" "&amp;D6&amp;"; "&amp;X25&amp;" "&amp;F4&amp;"; "&amp;X26&amp;" "&amp;F5&amp;"; "&amp;X27&amp;" "&amp;F6&amp;"; "&amp;S26&amp;" "&amp;D11&amp;"; "&amp;S27&amp;" "&amp;D12&amp;"; "&amp;S28&amp;" "&amp;D13&amp;"; "&amp;S29&amp;" "&amp;D14&amp;"; "&amp;S30&amp;" "&amp;D15&amp;";"</f>
+        <v>N0,60,90,91,151,181,182,242,272,273,333,363,364,424,454,455,515,545,546,576,577,607,608,638,639,669,670,770,0,0,100,100,100,150,150,150,150,150,150,200,200,200,200,200,200,250,250,250,250,250,200,200,150,150,0,0,-50,-150,0,0,0,60,90,91,151,181,182,242,272,273,333,363,364,424,454,455,515,545,546,576,577,607,608,638,639,669,670,770,0,0,100,100,100,150,150,150,150,150,150,200,200,200,200,200,200,250,250,250,250,250,200,200,150,150,100,100,50,-50,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,27,table_size 3; kp1 31; ki1 23; kd1 37; kp2 6; ki2 23; kd2 8; kp3 5; ki3 15; kd3 12; max_correction_top 30; max_correction_bottom 70; max_pcb_delta 10; hold_lenght 5; participation_rate_top 30;</v>
       </c>
       <c r="E35" t="s">
         <v>49</v>
       </c>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -8535,16 +8840,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -8578,14 +8883,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -8596,7 +8901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8652,7 +8957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -8711,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8776,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8841,7 +9146,7 @@
         <v>0.50588235294117645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8906,7 +9211,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -8971,7 +9276,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9036,7 +9341,7 @@
         <v>0.1038961038961039</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9101,7 +9406,7 @@
         <v>0.31034482758620691</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -9166,7 +9471,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -9231,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -9296,7 +9601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -9340,7 +9645,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -9384,7 +9689,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -9428,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -9472,7 +9777,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -9516,7 +9821,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -9560,7 +9865,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -9604,7 +9909,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -9648,7 +9953,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -9692,7 +9997,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -9736,7 +10041,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -9780,7 +10085,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -9824,7 +10129,7 @@
         <v>-0.84615384615384615</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -9868,7 +10173,7 @@
         <v>-2.5294117647058822</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -9912,7 +10217,7 @@
         <v>-2.5813953488372094</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -9932,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -9952,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -9972,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -9992,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -10012,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -10032,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>50</v>
       </c>
@@ -10049,7 +10354,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -10064,89 +10369,89 @@
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="M80" s="16"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16&amp;","&amp;J17&amp;","&amp;J18&amp;","&amp;J19&amp;","&amp;J20&amp;","&amp;J21&amp;","&amp;J22&amp;","&amp;J23&amp;","&amp;J24&amp;","&amp;J25&amp;","&amp;J26&amp;","&amp;J27&amp;","&amp;J28&amp;","&amp;J29&amp;","&amp;J30&amp;","&amp;J31&amp;","&amp;J32&amp;","&amp;J33&amp;","&amp;J34&amp;","</f>
         <v>0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,413,481,524,0,0,0,0,0,0,</v>
       </c>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","</f>
         <v>84,84,102,112,122,132,157,192,211,205,195,180,180,197,232,262,289,313,335,350,344,333,161,50,0,0,0,0,0,0,</v>
       </c>
       <c r="M83" s="16"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="M84" s="16"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20&amp;","&amp;B21&amp;","&amp;B22&amp;","&amp;B23&amp;","&amp;B24&amp;","&amp;B25&amp;","&amp;B26&amp;","&amp;B27&amp;","&amp;B28&amp;","&amp;B29&amp;","&amp;B30&amp;","&amp;B31&amp;","&amp;B32&amp;","&amp;B33&amp;","&amp;B34&amp;","</f>
         <v>0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,524,0,0,0,0,0,0,</v>
       </c>
       <c r="M85" s="16"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="M86" s="16"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","&amp;C17&amp;","&amp;C18&amp;","&amp;C19&amp;","&amp;C20&amp;","&amp;C21&amp;","&amp;C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34&amp;","</f>
         <v>256,256,306,312,318,320,325,324,319,304,288,275,275,279,294,308,309,310,311,309,302,269,194,104,0,0,0,0,0,0,</v>
       </c>
       <c r="M87" s="16"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>18</v>
       </c>
       <c r="M88" s="16"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>R5&amp;","&amp;R6&amp;","&amp;R7&amp;","&amp;R8&amp;","&amp;R9&amp;","&amp;R10&amp;","&amp;R11&amp;","&amp;R12&amp;","&amp;R13&amp;","&amp;R14&amp;","</f>
         <v>0,4,89,153,185,262,378,398,413,524,</v>
       </c>
       <c r="M89" s="16"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
       <c r="M90" s="16"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>S5&amp;","&amp;S6&amp;","&amp;S7&amp;","&amp;S8&amp;","&amp;S9&amp;","&amp;S10&amp;","&amp;S11&amp;","&amp;S12&amp;","&amp;S13&amp;","&amp;S14</f>
         <v>79,79,122,152,162,170,206,210,210,99</v>
       </c>
       <c r="M91" s="16"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -10169,16 +10474,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
@@ -10212,14 +10517,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10230,7 +10535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10286,7 +10591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -10294,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="7">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3">
         <f>A5:A26</f>
@@ -10345,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -10355,7 +10660,7 @@
       </c>
       <c r="C6" s="8">
         <f>C5+E6</f>
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -10410,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -10420,7 +10725,7 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
@@ -10429,7 +10734,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F32" si="1">E7/D7</f>
+        <f t="shared" ref="F7:F31" si="1">E7/D7</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="I7">
@@ -10450,7 +10755,7 @@
         <v>18</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" ref="N7:N30" si="3">M7/L7</f>
+        <f t="shared" ref="N7:N29" si="3">M7/L7</f>
         <v>0.6</v>
       </c>
       <c r="Q7">
@@ -10475,7 +10780,7 @@
         <v>0.50588235294117645</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10485,7 +10790,7 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="D8" s="2">
         <v>20</v>
@@ -10540,7 +10845,7 @@
         <v>0.37142857142857144</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -10550,7 +10855,7 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2">
         <v>20</v>
@@ -10605,7 +10910,7 @@
         <v>0.24528301886792453</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -10615,7 +10920,7 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="D10" s="2">
         <v>20</v>
@@ -10670,7 +10975,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -10680,7 +10985,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="D11" s="2">
         <v>20</v>
@@ -10735,7 +11040,7 @@
         <v>0.32142857142857145</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -10745,7 +11050,7 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
@@ -10800,7 +11105,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -10810,7 +11115,7 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="D13" s="2">
         <v>20</v>
@@ -10865,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -10875,7 +11180,7 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="D14" s="2">
         <v>20</v>
@@ -10930,7 +11235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -10940,7 +11245,7 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="D15" s="2">
         <v>20</v>
@@ -10974,7 +11279,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -10984,7 +11289,7 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2">
         <v>20</v>
@@ -11018,7 +11323,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -11028,7 +11333,7 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2">
         <v>20</v>
@@ -11062,7 +11367,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -11072,7 +11377,7 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="D18" s="2">
         <v>20</v>
@@ -11106,7 +11411,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -11116,7 +11421,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="D19" s="2">
         <v>20</v>
@@ -11150,7 +11455,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -11160,7 +11465,7 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
@@ -11194,7 +11499,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -11204,7 +11509,7 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="D21" s="2">
         <v>20</v>
@@ -11238,7 +11543,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -11248,7 +11553,7 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" ref="C22:C32" si="7">C21+E22</f>
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="D22" s="2">
         <v>20</v>
@@ -11282,7 +11587,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -11292,7 +11597,7 @@
       </c>
       <c r="C23" s="8">
         <f t="shared" si="7"/>
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -11326,7 +11631,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -11336,7 +11641,7 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" si="7"/>
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="D24" s="2">
         <v>20</v>
@@ -11370,7 +11675,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -11380,7 +11685,7 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="7"/>
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="D25" s="2">
         <v>20</v>
@@ -11414,7 +11719,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -11424,7 +11729,7 @@
       </c>
       <c r="C26" s="8">
         <f t="shared" si="7"/>
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2">
         <v>20</v>
@@ -11444,7 +11749,7 @@
         <v>420</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" ref="K26:K30" si="10">K25+M26</f>
+        <f t="shared" ref="K26:K29" si="10">K25+M26</f>
         <v>386</v>
       </c>
       <c r="L26" s="2">
@@ -11458,7 +11763,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -11468,7 +11773,7 @@
       </c>
       <c r="C27" s="8">
         <f t="shared" si="7"/>
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2">
         <v>20</v>
@@ -11502,7 +11807,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -11512,7 +11817,7 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="7"/>
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="D28" s="2">
         <v>20</v>
@@ -11546,7 +11851,7 @@
         <v>-0.47058823529411764</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -11556,7 +11861,7 @@
       </c>
       <c r="C29" s="8">
         <f t="shared" si="7"/>
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="D29" s="2">
         <v>20</v>
@@ -11590,7 +11895,7 @@
         <v>-2.7279411764705883</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -11600,7 +11905,7 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" si="7"/>
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2">
         <v>20</v>
@@ -11633,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -11643,7 +11948,7 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2">
         <v>99</v>
@@ -11674,7 +11979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -11684,7 +11989,7 @@
       </c>
       <c r="C32" s="8">
         <f t="shared" si="7"/>
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -11714,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -11752,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -11790,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>50</v>
       </c>
@@ -11807,7 +12112,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -11822,88 +12127,88 @@
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="M80" s="16"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16&amp;","&amp;J17&amp;","&amp;J18&amp;","&amp;J19&amp;","&amp;J20&amp;","&amp;J21&amp;","&amp;J22&amp;","&amp;J23&amp;","&amp;J24&amp;","&amp;J25&amp;","&amp;J26&amp;","&amp;J27&amp;","&amp;J28&amp;","&amp;J29&amp;","&amp;J30&amp;","&amp;J31&amp;","&amp;J32&amp;","&amp;J33&amp;","&amp;J34&amp;","</f>
         <v>0,10,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,420,440,457,593,593,0,0,0,0,</v>
       </c>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="str">
         <f>K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","</f>
         <v>84,84,102,112,122,131,139,146,161,166,172,170,169,194,235,262,290,313,335,356,373,386,391,383,12,12,0,0,0,0,</v>
       </c>
       <c r="M83" s="16"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="M84" s="16"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20&amp;","&amp;B21&amp;","&amp;B22&amp;","&amp;B23&amp;","&amp;B24&amp;","&amp;B25&amp;","&amp;B26&amp;","&amp;B27&amp;","&amp;B28&amp;","&amp;B29&amp;","&amp;B30&amp;","&amp;B31&amp;","&amp;B32&amp;","&amp;B33&amp;","&amp;B34&amp;","</f>
         <v>0,4,34,54,74,94,114,134,154,174,194,214,234,254,274,294,314,334,354,374,394,414,434,454,474,494,593,593,0,0,</v>
       </c>
       <c r="M85" s="16"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="M86" s="16"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","&amp;C17&amp;","&amp;C18&amp;","&amp;C19&amp;","&amp;C20&amp;","&amp;C21&amp;","&amp;C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34&amp;","</f>
-        <v>256,256,306,316,326,321,316,311,306,301,291,281,270,282,302,309,310,311,310,309,307,305,303,295,255,202,103,103,0,0,</v>
+        <v>170,170,220,230,240,235,230,225,220,215,205,195,184,196,216,223,224,225,224,223,221,219,217,209,169,116,17,17,0,0,</v>
       </c>
       <c r="M87" s="16"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>18</v>
       </c>
       <c r="M88" s="16"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>R5&amp;","&amp;R6&amp;","&amp;R7&amp;","&amp;R8&amp;","&amp;R9&amp;","&amp;R10&amp;","&amp;R11&amp;","&amp;R12&amp;","&amp;R13&amp;","&amp;R14&amp;","</f>
         <v>0,4,89,159,212,252,420,442,457,593,</v>
       </c>
       <c r="M89" s="16"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
       <c r="M90" s="16"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>S5&amp;","&amp;S6&amp;","&amp;S7&amp;","&amp;S8&amp;","&amp;S9&amp;","&amp;S10&amp;","&amp;S11&amp;","&amp;S12&amp;","&amp;S13&amp;","&amp;S14</f>
         <v>79,79,122,148,161,165,219,227,227,91</v>
       </c>
       <c r="M91" s="16"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -11918,7 +12223,7 @@
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
     </row>
-    <row r="96" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
@@ -11940,16 +12245,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
@@ -11983,14 +12288,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12001,7 +12306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -12057,7 +12362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -12116,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12181,7 +12486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -12246,7 +12551,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -12311,7 +12616,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -12376,7 +12681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -12441,7 +12746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -12506,7 +12811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -12571,7 +12876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -12636,7 +12941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -12701,7 +13006,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -12745,7 +13050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12789,7 +13094,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -12833,7 +13138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -12877,7 +13182,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -12921,7 +13226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -12965,7 +13270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -13009,7 +13314,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -13053,7 +13358,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -13097,7 +13402,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -13141,7 +13446,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -13185,7 +13490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -13229,7 +13534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -13273,7 +13578,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -13317,7 +13622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -13361,7 +13666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -13405,7 +13710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -13446,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -13487,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -13525,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -13563,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>19</v>
       </c>
@@ -13580,7 +13885,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -13595,88 +13900,88 @@
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="M80" s="16"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16&amp;","&amp;J17&amp;","&amp;J18&amp;","&amp;J19&amp;","&amp;J20&amp;","&amp;J21&amp;","&amp;J22&amp;","&amp;J23&amp;","&amp;J24&amp;","&amp;J25&amp;","&amp;J26&amp;","&amp;J27&amp;","&amp;J28&amp;","&amp;J29&amp;","&amp;J30&amp;","&amp;J31&amp;","&amp;J32&amp;","&amp;J33&amp;","&amp;J34&amp;","</f>
         <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,</v>
       </c>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="str">
         <f>K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","</f>
         <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,</v>
       </c>
       <c r="M83" s="16"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="M84" s="16"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20&amp;","&amp;B21&amp;","&amp;B22&amp;","&amp;B23&amp;","&amp;B24&amp;","&amp;B25&amp;","&amp;B26&amp;","&amp;B27&amp;","&amp;B28&amp;","&amp;B29&amp;","&amp;B30&amp;","&amp;B31&amp;","&amp;B32&amp;","&amp;B33&amp;","&amp;B34&amp;","</f>
         <v>0,20,40,60,80,100,120,140,160,180,200,220,240,260,280,300,320,340,360,380,400,420,440,460,480,500,520,620,0,0,</v>
       </c>
       <c r="M85" s="16"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="M86" s="16"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","&amp;C17&amp;","&amp;C18&amp;","&amp;C19&amp;","&amp;C20&amp;","&amp;C21&amp;","&amp;C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34&amp;","</f>
         <v>250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,250,0,0,</v>
       </c>
       <c r="M87" s="16"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>18</v>
       </c>
       <c r="M88" s="16"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>R5&amp;","&amp;R6&amp;","&amp;R7&amp;","&amp;R8&amp;","&amp;R9&amp;","&amp;R10&amp;","&amp;R11&amp;","&amp;R12&amp;","&amp;R13&amp;","&amp;R14&amp;","</f>
         <v>0,0,0,0,0,0,0,0,0,0,</v>
       </c>
       <c r="M89" s="16"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
       <c r="M90" s="16"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>S5&amp;","&amp;S6&amp;","&amp;S7&amp;","&amp;S8&amp;","&amp;S9&amp;","&amp;S10&amp;","&amp;S11&amp;","&amp;S12&amp;","&amp;S13&amp;","&amp;S14</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="M91" s="16"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -13699,16 +14004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
@@ -13742,14 +14047,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13760,7 +14065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -13816,7 +14121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13875,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -13940,7 +14245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -14005,7 +14310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -14070,7 +14375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -14135,7 +14440,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -14200,7 +14505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -14265,7 +14570,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -14330,7 +14635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -14395,7 +14700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -14460,7 +14765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -14504,7 +14809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -14548,7 +14853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -14592,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -14636,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -14680,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -14724,7 +15029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -14768,7 +15073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -14812,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -14856,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -14900,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -14944,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -14988,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -15032,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -15076,7 +15381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -15120,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -15164,7 +15469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -15207,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -15250,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -15288,7 +15593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -15326,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>19</v>
       </c>
@@ -15343,7 +15648,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -15358,88 +15663,88 @@
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="M80" s="16"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16&amp;","&amp;J17&amp;","&amp;J18&amp;","&amp;J19&amp;","&amp;J20&amp;","&amp;J21&amp;","&amp;J22&amp;","&amp;J23&amp;","&amp;J24&amp;","&amp;J25&amp;","&amp;J26&amp;","&amp;J27&amp;","&amp;J28&amp;","&amp;J29&amp;","&amp;J30&amp;","&amp;J31&amp;","&amp;J32&amp;","&amp;J33&amp;","&amp;J34&amp;","</f>
         <v>0,60,90,91,120,121,122,123,124,125,185,215,216,276,306,307,367,397,398,428,429,459,460,490,491,521,522,622,0,0,</v>
       </c>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="str">
         <f>K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","</f>
         <v>100,100,100,450,450,450,450,450,450,100,100,100,100,100,100,150,150,150,150,150,150,150,150,150,150,150,150,150,0,0,</v>
       </c>
       <c r="M83" s="16"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="M84" s="16"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20&amp;","&amp;B21&amp;","&amp;B22&amp;","&amp;B23&amp;","&amp;B24&amp;","&amp;B25&amp;","&amp;B26&amp;","&amp;B27&amp;","&amp;B28&amp;","&amp;B29&amp;","&amp;B30&amp;","&amp;B31&amp;","&amp;B32&amp;","&amp;B33&amp;","&amp;B34&amp;","</f>
         <v>0,60,90,91,120,121,122,123,124,125,185,215,216,276,306,307,367,397,398,428,429,459,460,490,491,521,522,622,0,0,</v>
       </c>
       <c r="M85" s="16"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="M86" s="16"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","&amp;C17&amp;","&amp;C18&amp;","&amp;C19&amp;","&amp;C20&amp;","&amp;C21&amp;","&amp;C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34&amp;","</f>
         <v>100,100,100,450,450,450,450,450,450,100,100,100,100,100,100,150,150,150,150,150,150,150,150,150,150,150,150,150,0,0,</v>
       </c>
       <c r="M87" s="16"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>18</v>
       </c>
       <c r="M88" s="16"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>R5&amp;","&amp;R6&amp;","&amp;R7&amp;","&amp;R8&amp;","&amp;R9&amp;","&amp;R10&amp;","&amp;R11&amp;","&amp;R12&amp;","&amp;R13&amp;","&amp;R14&amp;","</f>
         <v>0,0,0,0,0,0,0,0,0,0,</v>
       </c>
       <c r="M89" s="16"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
       <c r="M90" s="16"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>S5&amp;","&amp;S6&amp;","&amp;S7&amp;","&amp;S8&amp;","&amp;S9&amp;","&amp;S10&amp;","&amp;S11&amp;","&amp;S12&amp;","&amp;S13&amp;","&amp;S14</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="M91" s="16"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -15462,16 +15767,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
@@ -15505,14 +15810,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15523,7 +15828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -15579,7 +15884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -15638,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -15703,7 +16008,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -15768,7 +16073,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -15833,7 +16138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -15898,7 +16203,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -15963,7 +16268,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -16028,7 +16333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -16093,7 +16398,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -16158,7 +16463,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -16223,7 +16528,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -16267,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -16311,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -16355,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -16399,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -16443,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -16487,7 +16792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -16531,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -16575,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -16619,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -16663,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -16707,7 +17012,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -16751,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -16795,7 +17100,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -16839,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -16883,7 +17188,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -16927,7 +17232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -16970,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -17013,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -17051,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -17089,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>19</v>
       </c>
@@ -17106,7 +17411,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -17121,88 +17426,88 @@
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="M80" s="16"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16&amp;","&amp;J17&amp;","&amp;J18&amp;","&amp;J19&amp;","&amp;J20&amp;","&amp;J21&amp;","&amp;J22&amp;","&amp;J23&amp;","&amp;J24&amp;","&amp;J25&amp;","&amp;J26&amp;","&amp;J27&amp;","&amp;J28&amp;","&amp;J29&amp;","&amp;J30&amp;","&amp;J31&amp;","&amp;J32&amp;","&amp;J33&amp;","&amp;J34&amp;","</f>
         <v>0,60,90,91,151,181,182,242,272,273,333,363,364,424,454,455,515,545,546,576,577,607,608,638,639,669,670,770,0,0,</v>
       </c>
       <c r="M81" s="16"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
       <c r="M82" s="16"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="str">
         <f>K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","</f>
         <v>100,100,100,150,150,150,150,150,150,200,200,200,200,200,200,250,250,250,250,250,200,200,150,150,0,0,-50,-150,0,0,</v>
       </c>
       <c r="M83" s="16"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="M84" s="16"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>B5&amp;","&amp;B6&amp;","&amp;B7&amp;","&amp;B8&amp;","&amp;B9&amp;","&amp;B10&amp;","&amp;B11&amp;","&amp;B12&amp;","&amp;B13&amp;","&amp;B14&amp;","&amp;B15&amp;","&amp;B16&amp;","&amp;B17&amp;","&amp;B18&amp;","&amp;B19&amp;","&amp;B20&amp;","&amp;B21&amp;","&amp;B22&amp;","&amp;B23&amp;","&amp;B24&amp;","&amp;B25&amp;","&amp;B26&amp;","&amp;B27&amp;","&amp;B28&amp;","&amp;B29&amp;","&amp;B30&amp;","&amp;B31&amp;","&amp;B32&amp;","&amp;B33&amp;","&amp;B34&amp;","</f>
         <v>0,60,90,91,151,181,182,242,272,273,333,363,364,424,454,455,515,545,546,576,577,607,608,638,639,669,670,770,0,0,</v>
       </c>
       <c r="M85" s="16"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="M86" s="16"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15&amp;","&amp;C16&amp;","&amp;C17&amp;","&amp;C18&amp;","&amp;C19&amp;","&amp;C20&amp;","&amp;C21&amp;","&amp;C22&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29&amp;","&amp;C30&amp;","&amp;C31&amp;","&amp;C32&amp;","&amp;C33&amp;","&amp;C34&amp;","</f>
         <v>100,100,100,150,150,150,150,150,150,200,200,200,200,200,200,250,250,250,250,250,200,200,150,150,100,100,50,-50,0,0,</v>
       </c>
       <c r="M87" s="16"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>18</v>
       </c>
       <c r="M88" s="16"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>R5&amp;","&amp;R6&amp;","&amp;R7&amp;","&amp;R8&amp;","&amp;R9&amp;","&amp;R10&amp;","&amp;R11&amp;","&amp;R12&amp;","&amp;R13&amp;","&amp;R14&amp;","</f>
         <v>0,0,0,0,0,0,0,0,0,0,</v>
       </c>
       <c r="M89" s="16"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>17</v>
       </c>
       <c r="M90" s="16"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>S5&amp;","&amp;S6&amp;","&amp;S7&amp;","&amp;S8&amp;","&amp;S9&amp;","&amp;S10&amp;","&amp;S11&amp;","&amp;S12&amp;","&amp;S13&amp;","&amp;S14</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="M91" s="16"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M92" s="16"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>

--- a/Plot_Edit_for_v_0.2.xlsx
+++ b/Plot_Edit_for_v_0.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Desktop\SolderingStation\Sketch_3thermo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C229733-6684-48EF-829E-1684B6CC4313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E8B7B4C-11F3-4BB6-A7CF-E2E21CACA442}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8372,7 +8372,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
